--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 2020.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 2020.xlsx
@@ -928,7 +928,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 2020.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
   </si>
 </sst>
 </file>
@@ -641,16 +632,19 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>91.3</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -664,16 +658,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>79.48999999999999</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -687,16 +684,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>77.78</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -710,16 +710,19 @@
         <v>28</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>28</v>
       </c>
-      <c r="E5">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +790,7 @@
         <v>91.3</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -804,16 +807,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>76.92</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -830,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -856,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>89.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +878,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,29 +911,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 2020.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 2020.xlsx
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>89.29000000000001</v>
+        <v>92.86</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +722,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
